--- a/Tools/本地数据表/DTSys_Localization.xlsx
+++ b/Tools/本地数据表/DTSys_Localization.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB840D-813F-497E-AFD4-589BFBCDA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,70 +62,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Loading.CheckVersion</t>
+  </si>
+  <si>
+    <t>Loading.ChangeScene</t>
+  </si>
+  <si>
+    <t>正在加载场景{0}%</t>
+  </si>
+  <si>
+    <t>天山</t>
+  </si>
+  <si>
+    <t>JobName.TianShan</t>
+  </si>
+  <si>
+    <t>武当</t>
+  </si>
+  <si>
+    <t>JobName.ErMei</t>
+  </si>
+  <si>
+    <t>峨眉</t>
+  </si>
+  <si>
+    <t>少林</t>
+  </si>
+  <si>
+    <t>JobName.ShaoLin</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>JobName.GaiBang</t>
+  </si>
+  <si>
     <t>系统码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connect.TimeOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reg.UserNameExists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login.UnExists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input.UserNameEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input.PwdEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect_TimeOut</t>
+  </si>
+  <si>
+    <t>连接超时</t>
+  </si>
+  <si>
+    <t>SignError</t>
   </si>
   <si>
     <t>签名错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg_UserNameExists</t>
   </si>
   <si>
     <t>注册失败 账号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆失败 账号或密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_UnExists</t>
+  </si>
+  <si>
+    <t>登录失败 账号错误</t>
+  </si>
+  <si>
+    <t>Input_UserNameEmpty</t>
   </si>
   <si>
     <t>请输入账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input_PwdEmpty</t>
   </si>
   <si>
     <t>请输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,12 +469,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,51 +528,48 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -555,10 +577,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -566,13 +588,79 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
